--- a/copy/input.xlsx
+++ b/copy/input.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fujimorimu/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A6EB2-6767-DC48-9EE8-CC8B816DD9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDA12D0-EFC2-5346-8E0C-94A4A4952825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{91D00950-669B-4649-B727-A0081C955E8B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{91D00950-669B-4649-B727-A0081C955E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="input1" sheetId="1" r:id="rId1"/>
     <sheet name="input2" sheetId="2" r:id="rId2"/>
     <sheet name="input3" sheetId="3" r:id="rId3"/>
+    <sheet name="input4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
   <si>
     <t>コース</t>
     <phoneticPr fontId="1"/>
@@ -66,13 +64,6 @@
     <t>物理</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得判定</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,44 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教養科目A</t>
-    <rPh sb="0" eb="2">
-      <t>キョウヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教養科目B</t>
-    <rPh sb="0" eb="1">
-      <t>キョウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教養科目C</t>
-    <rPh sb="0" eb="1">
-      <t>キョウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャリア形成科目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上記以外の科目</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履修予定</t>
     <rPh sb="0" eb="4">
       <t>リシュウ</t>
@@ -258,6 +211,596 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目名</t>
+  </si>
+  <si>
+    <t>基礎数理</t>
+  </si>
+  <si>
+    <t>数理トピックスⅠ</t>
+  </si>
+  <si>
+    <t>数理トピックスⅡ－1</t>
+  </si>
+  <si>
+    <t>数理トピックスⅡ－2</t>
+  </si>
+  <si>
+    <t>物理学概論Ⅰ</t>
+  </si>
+  <si>
+    <t>物理学概論Ⅱ</t>
+  </si>
+  <si>
+    <t>化学概論Ⅰ</t>
+  </si>
+  <si>
+    <t>化学概論Ⅱ</t>
+  </si>
+  <si>
+    <t>化学概論実験Ⅰ</t>
+  </si>
+  <si>
+    <t>化学概論実験Ⅱ</t>
+  </si>
+  <si>
+    <t>生物学概論Ⅰ</t>
+  </si>
+  <si>
+    <t>生物学概論Ⅱ</t>
+  </si>
+  <si>
+    <t>生物学概論実験Ⅰ</t>
+  </si>
+  <si>
+    <t>生物学概論実験Ⅱ</t>
+  </si>
+  <si>
+    <t>情報科学概論</t>
+  </si>
+  <si>
+    <t>情報科学実験</t>
+  </si>
+  <si>
+    <t>プログラミング実習</t>
+  </si>
+  <si>
+    <t>地学Ⅰ</t>
+  </si>
+  <si>
+    <t>地学Ⅰ実験</t>
+  </si>
+  <si>
+    <t>地学Ⅱ</t>
+  </si>
+  <si>
+    <t>総合自然科学</t>
+  </si>
+  <si>
+    <t>線形代数学Ⅰ</t>
+  </si>
+  <si>
+    <t>線形代数学Ⅰ演習</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅰ</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅰ演習</t>
+  </si>
+  <si>
+    <t>線形代数学Ⅱ</t>
+  </si>
+  <si>
+    <t>線形代数学Ⅱ演習</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅱ</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅱ演習</t>
+  </si>
+  <si>
+    <t>力学Ⅰ</t>
+  </si>
+  <si>
+    <t>物理学基礎実験Ⅰ</t>
+  </si>
+  <si>
+    <t>物理学基礎実験Ⅱ</t>
+  </si>
+  <si>
+    <t>計算機アーキテクチャⅠ</t>
+  </si>
+  <si>
+    <t>線形代数学Ⅲ</t>
+  </si>
+  <si>
+    <t>線形代数学Ⅲ演習</t>
+  </si>
+  <si>
+    <t>群論</t>
+  </si>
+  <si>
+    <t>群論演習</t>
+  </si>
+  <si>
+    <t>環・体論</t>
+  </si>
+  <si>
+    <t>ガロア理論</t>
+  </si>
+  <si>
+    <t>集合論</t>
+  </si>
+  <si>
+    <t>集合論演習</t>
+  </si>
+  <si>
+    <t>位相入門</t>
+  </si>
+  <si>
+    <t>位相入門演習</t>
+  </si>
+  <si>
+    <t>位相空間論</t>
+  </si>
+  <si>
+    <t>微分幾何学Ⅰ</t>
+  </si>
+  <si>
+    <t>微分幾何学Ⅱ</t>
+  </si>
+  <si>
+    <t>曲面と位相幾何</t>
+  </si>
+  <si>
+    <t>ホモロジーと位相幾何</t>
+  </si>
+  <si>
+    <t>結び目と位相幾何</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅲ</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅲ演習</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅳ</t>
+  </si>
+  <si>
+    <t>微分積分学Ⅳ演習</t>
+  </si>
+  <si>
+    <t>複素関数論Ⅰ</t>
+  </si>
+  <si>
+    <t>複素関数論Ⅰ演習</t>
+  </si>
+  <si>
+    <t>複素関数論Ⅱ</t>
+  </si>
+  <si>
+    <t>複素関数論Ⅱ演習</t>
+  </si>
+  <si>
+    <t>ルベーク積分論</t>
+  </si>
+  <si>
+    <t>確率過程論</t>
+  </si>
+  <si>
+    <t>数の体系</t>
+  </si>
+  <si>
+    <t>非線形微分方程式</t>
+  </si>
+  <si>
+    <t>数理ファイナンス</t>
+  </si>
+  <si>
+    <t>社会現象の数理解析</t>
+  </si>
+  <si>
+    <t>確率統計と情報処理</t>
+  </si>
+  <si>
+    <t>確率統計と情報処理演習</t>
+  </si>
+  <si>
+    <t>統計解析</t>
+  </si>
+  <si>
+    <t>統計解析演習</t>
+  </si>
+  <si>
+    <t>情報統計学</t>
+  </si>
+  <si>
+    <t>力学Ⅱ</t>
+  </si>
+  <si>
+    <t>解析力学</t>
+  </si>
+  <si>
+    <t>物理数学Ⅰ</t>
+  </si>
+  <si>
+    <t>物理数学Ⅱ</t>
+  </si>
+  <si>
+    <t>線形システム</t>
+  </si>
+  <si>
+    <t>電磁気学Ⅰ</t>
+  </si>
+  <si>
+    <t>電磁気学Ⅱ</t>
+  </si>
+  <si>
+    <t>電磁気学Ⅲ</t>
+  </si>
+  <si>
+    <t>振動と波動</t>
+  </si>
+  <si>
+    <t>光情報処理</t>
+  </si>
+  <si>
+    <t>物理学演習Ⅰ</t>
+  </si>
+  <si>
+    <t>物理学演習Ⅱ</t>
+  </si>
+  <si>
+    <t>エレクトロニクス概論</t>
+  </si>
+  <si>
+    <t>熱力学</t>
+  </si>
+  <si>
+    <t>統計力学</t>
+  </si>
+  <si>
+    <t>量子力学Ⅰ</t>
+  </si>
+  <si>
+    <t>量子力学Ⅱ</t>
+  </si>
+  <si>
+    <t>電子回路</t>
+  </si>
+  <si>
+    <t>物質構造解析</t>
+  </si>
+  <si>
+    <t>物性物理学</t>
+  </si>
+  <si>
+    <t>天文学概論</t>
+  </si>
+  <si>
+    <t>宇宙と現代物理学</t>
+  </si>
+  <si>
+    <t>応用物理</t>
+  </si>
+  <si>
+    <t>計算物理</t>
+  </si>
+  <si>
+    <t>物理計測法</t>
+  </si>
+  <si>
+    <t>物理学実験</t>
+  </si>
+  <si>
+    <t>応用物理学実験Ⅰ</t>
+  </si>
+  <si>
+    <t>応用物理学実験Ⅱ</t>
+  </si>
+  <si>
+    <t>情報基礎数学</t>
+  </si>
+  <si>
+    <t>離散数学</t>
+  </si>
+  <si>
+    <t>計算機アーキテクチャⅡ</t>
+  </si>
+  <si>
+    <t>論理回路論</t>
+  </si>
+  <si>
+    <t>データ構造とアルゴリズム</t>
+  </si>
+  <si>
+    <t>シミュレーションとデータ表現</t>
+  </si>
+  <si>
+    <t>計算機数学Ⅰ</t>
+  </si>
+  <si>
+    <t>計算機数学Ⅱ</t>
+  </si>
+  <si>
+    <t>数値計算法Ⅰ</t>
+  </si>
+  <si>
+    <t>数値計算法Ⅱ</t>
+  </si>
+  <si>
+    <t>情報検索とデータベース実習</t>
+  </si>
+  <si>
+    <t>LinuxとShellプログラミング実習</t>
+  </si>
+  <si>
+    <t>プレゼンテーション実習</t>
+  </si>
+  <si>
+    <t>マルチメディアの基礎</t>
+  </si>
+  <si>
+    <t>図形と画像処理</t>
+  </si>
+  <si>
+    <t>図形と画像処理演習</t>
+  </si>
+  <si>
+    <t>コンピューターグラフィックス</t>
+  </si>
+  <si>
+    <t>情報ネットワーク</t>
+  </si>
+  <si>
+    <t>情報セキュリティとネットワークシステム</t>
+  </si>
+  <si>
+    <t>ネットワーク管理実習</t>
+  </si>
+  <si>
+    <t>符号理論</t>
+  </si>
+  <si>
+    <t>暗号理論とセキュリティ</t>
+  </si>
+  <si>
+    <t>情報理論</t>
+  </si>
+  <si>
+    <t>人工知能</t>
+  </si>
+  <si>
+    <t>数理モデル</t>
+  </si>
+  <si>
+    <t>Webプログラミング</t>
+  </si>
+  <si>
+    <t>情報社会倫理論</t>
+  </si>
+  <si>
+    <t>情報と職業</t>
+  </si>
+  <si>
+    <t>代数学特論A</t>
+  </si>
+  <si>
+    <t>代数学特論B</t>
+  </si>
+  <si>
+    <t>位相幾何学特論A</t>
+  </si>
+  <si>
+    <t>位相幾何学特論B</t>
+  </si>
+  <si>
+    <t>微分幾何学特論A</t>
+  </si>
+  <si>
+    <t>微分幾何学特論B</t>
+  </si>
+  <si>
+    <t>解析学特論A</t>
+  </si>
+  <si>
+    <t>解析学特論B</t>
+  </si>
+  <si>
+    <t>解析学特論C</t>
+  </si>
+  <si>
+    <t>解析学特論D</t>
+  </si>
+  <si>
+    <t>数理統計学特論A</t>
+  </si>
+  <si>
+    <t>数理統計学特論B</t>
+  </si>
+  <si>
+    <t>量子力学特論</t>
+  </si>
+  <si>
+    <t>熱・統計力学特論</t>
+  </si>
+  <si>
+    <t>表面物理学特論</t>
+  </si>
+  <si>
+    <t>物性物理学特論</t>
+  </si>
+  <si>
+    <t>構造物性科学特論</t>
+  </si>
+  <si>
+    <t>宇宙物理学特論</t>
+  </si>
+  <si>
+    <t>情報科学特論A</t>
+  </si>
+  <si>
+    <t>情報科学特論B</t>
+  </si>
+  <si>
+    <t>情報科学特論C</t>
+  </si>
+  <si>
+    <t>情報科学特論D</t>
+  </si>
+  <si>
+    <t>情報科学特論E</t>
+  </si>
+  <si>
+    <t>情報科学特論F</t>
+  </si>
+  <si>
+    <t>数学ゼミ(2年)</t>
+  </si>
+  <si>
+    <t>数学ゼミ(3年)</t>
+  </si>
+  <si>
+    <t>物理ゼミⅠ</t>
+  </si>
+  <si>
+    <t>物理ゼミⅡ</t>
+  </si>
+  <si>
+    <t>情報ゼミⅠ</t>
+  </si>
+  <si>
+    <t>情報ゼミⅡ</t>
+  </si>
+  <si>
+    <t>数学卒業研究演習Ⅰ</t>
+  </si>
+  <si>
+    <t>数学卒業研究演習Ⅱ</t>
+  </si>
+  <si>
+    <t>数学特別演習Ⅰ</t>
+  </si>
+  <si>
+    <t>数学特別演習Ⅱ</t>
+  </si>
+  <si>
+    <t>物理特別研究Ⅰ</t>
+  </si>
+  <si>
+    <t>物理特別研究Ⅱ</t>
+  </si>
+  <si>
+    <t>情報特別研究Ⅰ</t>
+  </si>
+  <si>
+    <t>情報特別研究Ⅱ</t>
+  </si>
+  <si>
+    <t>卒業研究</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定方法</t>
+    <rPh sb="0" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教養A</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教養B</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教養C</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本国憲法</t>
+    <rPh sb="0" eb="5">
+      <t>ニホンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学年</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学中</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学高</t>
+    <rPh sb="0" eb="1">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科高</t>
+    <rPh sb="0" eb="1">
+      <t>リカチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科中</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">リカ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -341,1340 +884,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="data"/>
-      <sheetName val="input1"/>
-      <sheetName val="input2"/>
-      <sheetName val="input3"/>
-      <sheetName val="条件まとめ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>No.</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>科目名</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>基礎数理</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>数理トピックスⅠ</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>数理トピックスⅡ－1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>数理トピックスⅡ－2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>物理学概論Ⅰ</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>物理学概論Ⅱ</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>化学概論Ⅰ</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>化学概論Ⅱ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>化学概論実験Ⅰ</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>化学概論実験Ⅱ</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>生物学概論Ⅰ</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>生物学概論Ⅱ</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>生物学概論実験Ⅰ</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>生物学概論実験Ⅱ</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>情報科学概論</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>情報科学実験</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>プログラミング実習</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>地学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>地学Ⅰ実験</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>地学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>総合自然科学</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>線形代数学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>線形代数学Ⅰ演習</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>微分積分学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>微分積分学Ⅰ演習</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>線形代数学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>線形代数学Ⅱ演習</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>微分積分学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>微分積分学Ⅱ演習</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>力学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>物理学基礎実験Ⅰ</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>物理学基礎実験Ⅱ</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>計算機アーキテクチャⅠ</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>線形代数学Ⅲ</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>線形代数学Ⅲ演習</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>群論</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>群論演習</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>環・体論</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>ガロア理論</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>集合論</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>集合論演習</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>位相入門</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>位相入門演習</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>位相空間論</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>微分幾何学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>微分幾何学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>曲面と位相幾何</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>ホモロジーと位相幾何</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>結ぶ目と位相幾何</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>微分積分学Ⅲ</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>51</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>微分積分学Ⅲ演習</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>52</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>微分積分学Ⅳ</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>53</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>微分積分学Ⅳ演習</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>複素関数論Ⅰ</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>複素関数論Ⅰ演習</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>56</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>複素関数論Ⅱ</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>57</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>複素関数論Ⅱ演習</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>ルベーク積分論</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>59</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>確率過程論</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>60</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>数の体系</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>61</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>非線形微分方程式</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>62</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>数理ファイナンス</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>63</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>社会現象の数理解析</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>64</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>確率統計と情報処理</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>65</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>確率統計と情報処理演習</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>66</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>統計解析</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>67</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>統計解析演習</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>68</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>情報統計学</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>69</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>力学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>70</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>解析力学</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>71</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>物理数学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>72</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>物理数学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>73</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>線形システム</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>74</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>電磁気学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>75</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>電磁気学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>76</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>電磁気学Ⅲ</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>77</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>振動と波動</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>78</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>光情報処理</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>79</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>物理学演習Ⅰ</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>80</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>物理学演習Ⅱ</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>81</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>エレクトロニクス概論</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>82</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>熱力学</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>83</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>統計力学</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>84</v>
-          </cell>
-          <cell r="B85" t="str">
-            <v>量子力学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>85</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v>量子力学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>86</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>電子回路</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>87</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v>物質構造解析</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v>物性物理学</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>89</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>天文学概論</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>90</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v>宇宙と現代物理学</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>91</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>応用物理</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>92</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>計算物理</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>93</v>
-          </cell>
-          <cell r="B94" t="str">
-            <v>物理計測法</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>94</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>物理学実験</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>95</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>応用物理学実験Ⅰ</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>96</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>応用物理学実験Ⅱ</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>97</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>情報基礎数学</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>98</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>離散数学</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>99</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>計算機アーキテクチャⅡ</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>100</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>論理回路論</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>101</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>データ構造とアルゴリズム</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>102</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>シミュレーションとデータ表現</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>103</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>計算機数学Ⅰ</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>104</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>計算機数学Ⅱ</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>105</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>数値計算法Ⅰ</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>106</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>数値計算法Ⅱ</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>107</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>情報科学実験</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>108</v>
-          </cell>
-          <cell r="B109" t="str">
-            <v>情報検索とデータベース実習</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>109</v>
-          </cell>
-          <cell r="B110" t="str">
-            <v>LinuxとShellプログラミング実習</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>110</v>
-          </cell>
-          <cell r="B111" t="str">
-            <v>プレゼンテーション実習</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>111</v>
-          </cell>
-          <cell r="B112" t="str">
-            <v>マルチメディアの基礎</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>112</v>
-          </cell>
-          <cell r="B113" t="str">
-            <v>図形と画像処理</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>113</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>図形と画像処理演習</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>114</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>コンピューターグラフィックス</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>115</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>情報ネットワーク</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>116</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>情報セキュリティとネットワークシステム</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>117</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>ネットワーク管理実習</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>118</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>符号理論</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>119</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>暗号理論とセキュリティ</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>120</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>情報理論</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>121</v>
-          </cell>
-          <cell r="B122" t="str">
-            <v>人工知能</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>122</v>
-          </cell>
-          <cell r="B123" t="str">
-            <v>数理モデル</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>123</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>Webプログラミング</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>124</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>情報社会倫理論</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>125</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>情報と職業</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>126</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>代数学特論A</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>127</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>代数学特論B</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>128</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>位相幾何学特論A</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>129</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>位相幾何学特論B</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>130</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>微分幾何学特論A</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>131</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>微分幾何学特論B</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>132</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>解析学特論A</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>133</v>
-          </cell>
-          <cell r="B134" t="str">
-            <v>解析学特論B</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>134</v>
-          </cell>
-          <cell r="B135" t="str">
-            <v>解析学特論C</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>135</v>
-          </cell>
-          <cell r="B136" t="str">
-            <v>解析学特論D</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>136</v>
-          </cell>
-          <cell r="B137" t="str">
-            <v>数理統計学特論A</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>137</v>
-          </cell>
-          <cell r="B138" t="str">
-            <v>数理統計学特論B</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>138</v>
-          </cell>
-          <cell r="B139" t="str">
-            <v>量子力学特論</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>139</v>
-          </cell>
-          <cell r="B140" t="str">
-            <v>熱・統計力学特論</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>140</v>
-          </cell>
-          <cell r="B141" t="str">
-            <v>表面物理学特論</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>141</v>
-          </cell>
-          <cell r="B142" t="str">
-            <v>物性物理学特論</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>142</v>
-          </cell>
-          <cell r="B143" t="str">
-            <v>構造物性科学特論</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>143</v>
-          </cell>
-          <cell r="B144" t="str">
-            <v>宇宙物理学特論</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>144</v>
-          </cell>
-          <cell r="B145" t="str">
-            <v>情報科学特論A</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>145</v>
-          </cell>
-          <cell r="B146" t="str">
-            <v>情報科学特論B</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>146</v>
-          </cell>
-          <cell r="B147" t="str">
-            <v>情報科学特論C</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>147</v>
-          </cell>
-          <cell r="B148" t="str">
-            <v>情報科学特論D</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>148</v>
-          </cell>
-          <cell r="B149" t="str">
-            <v>情報科学特論E</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>149</v>
-          </cell>
-          <cell r="B150" t="str">
-            <v>情報科学特論F</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>150</v>
-          </cell>
-          <cell r="B151" t="str">
-            <v>数学ゼミ</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>151</v>
-          </cell>
-          <cell r="B152" t="str">
-            <v>物理ゼミⅠ</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>152</v>
-          </cell>
-          <cell r="B153" t="str">
-            <v>物理ゼミⅡ</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>153</v>
-          </cell>
-          <cell r="B154" t="str">
-            <v>情報ゼミⅠ</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>154</v>
-          </cell>
-          <cell r="B155" t="str">
-            <v>情報ゼミⅡ</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>155</v>
-          </cell>
-          <cell r="B156" t="str">
-            <v>数学卒業研究演習Ⅰ</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>156</v>
-          </cell>
-          <cell r="B157" t="str">
-            <v>数学卒業研究演習Ⅱ</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>157</v>
-          </cell>
-          <cell r="B158" t="str">
-            <v>数学特別演習Ⅰ</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>158</v>
-          </cell>
-          <cell r="B159" t="str">
-            <v>数学特別演習Ⅱ</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>159</v>
-          </cell>
-          <cell r="B160" t="str">
-            <v>物理特別研究Ⅰ</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>160</v>
-          </cell>
-          <cell r="B161" t="str">
-            <v>物理特別研究Ⅱ</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>161</v>
-          </cell>
-          <cell r="B162" t="str">
-            <v>情報特別研究Ⅰ</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>162</v>
-          </cell>
-          <cell r="B163" t="str">
-            <v>情報特別研究Ⅱ</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>163</v>
-          </cell>
-          <cell r="B164" t="str">
-            <v>卒業研究</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1974,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6C954-9FA8-C94A-A817-A1724A23D99A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1987,35 +1196,77 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="D2">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="D3">
+      <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="D4">
+      <c r="A4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2026,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B19289-D810-7F4E-87BF-60E1C4DCCECD}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2037,209 +1288,719 @@
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14 16384:16384">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14 16384:16384">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14 16384:16384">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="XFD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14 16384:16384">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="XFD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14 16384:16384">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="XFD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14 16384:16384">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="XFD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14 16384:16384">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="XFD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14 16384:16384">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="XFD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14 16384:16384">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="XFD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14 16384:16384">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="XFD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14 16384:16384">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="XFD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14 16384:16384">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="XFD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14 16384:16384">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="XFD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14 16384:16384">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="XFD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14 16384:16384">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="XFD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14 16384:16384">
+      <c r="XFD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16384:16384">
+      <c r="XFD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16384:16384">
+      <c r="XFD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="16384:16384">
+      <c r="XFD19">
         <v>0</v>
       </c>
     </row>
@@ -2251,50 +2012,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F34955F-5CCB-2E4E-B231-421D7B783751}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="str">
-        <f>[1]data!A1</f>
-        <v>No.</v>
-      </c>
-      <c r="B1" t="str">
-        <f>[1]data!B1</f>
-        <v>科目名</v>
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <f>[1]data!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>[1]data!B2</f>
-        <v>基礎数理</v>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2317,12 +2074,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <f>[1]data!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f>[1]data!B3</f>
-        <v>数理トピックスⅠ</v>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2345,12 +2100,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <f>[1]data!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>[1]data!B4</f>
-        <v>数理トピックスⅡ－1</v>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2373,12 +2126,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <f>[1]data!A5</f>
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f>[1]data!B5</f>
-        <v>数理トピックスⅡ－2</v>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2401,12 +2152,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <f>[1]data!A6</f>
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <f>[1]data!B6</f>
-        <v>物理学概論Ⅰ</v>
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2429,12 +2178,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <f>[1]data!A7</f>
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <f>[1]data!B7</f>
-        <v>物理学概論Ⅱ</v>
+      <c r="B7" t="s">
+        <v>31</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2457,12 +2204,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <f>[1]data!A8</f>
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <f>[1]data!B8</f>
-        <v>化学概論Ⅰ</v>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2485,12 +2230,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <f>[1]data!A9</f>
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <f>[1]data!B9</f>
-        <v>化学概論Ⅱ</v>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2513,12 +2256,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <f>[1]data!A10</f>
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <f>[1]data!B10</f>
-        <v>化学概論実験Ⅰ</v>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2541,12 +2282,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <f>[1]data!A11</f>
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <f>[1]data!B11</f>
-        <v>化学概論実験Ⅱ</v>
+      <c r="B11" t="s">
+        <v>35</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2569,12 +2308,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <f>[1]data!A12</f>
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <f>[1]data!B12</f>
-        <v>生物学概論Ⅰ</v>
+      <c r="B12" t="s">
+        <v>36</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2597,12 +2334,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <f>[1]data!A13</f>
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <f>[1]data!B13</f>
-        <v>生物学概論Ⅱ</v>
+      <c r="B13" t="s">
+        <v>37</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2625,12 +2360,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <f>[1]data!A14</f>
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <f>[1]data!B14</f>
-        <v>生物学概論実験Ⅰ</v>
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2653,12 +2386,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <f>[1]data!A15</f>
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <f>[1]data!B15</f>
-        <v>生物学概論実験Ⅱ</v>
+      <c r="B15" t="s">
+        <v>39</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2681,12 +2412,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <f>[1]data!A16</f>
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <f>[1]data!B16</f>
-        <v>情報科学概論</v>
+      <c r="B16" t="s">
+        <v>40</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2709,12 +2438,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <f>[1]data!A17</f>
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <f>[1]data!B17</f>
-        <v>情報科学実験</v>
+      <c r="B17" t="s">
+        <v>41</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2737,12 +2464,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <f>[1]data!A18</f>
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <f>[1]data!B18</f>
-        <v>プログラミング実習</v>
+      <c r="B18" t="s">
+        <v>42</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2765,12 +2490,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <f>[1]data!A19</f>
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <f>[1]data!B19</f>
-        <v>地学Ⅰ</v>
+      <c r="B19" t="s">
+        <v>43</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2793,12 +2516,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <f>[1]data!A20</f>
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <f>[1]data!B20</f>
-        <v>地学Ⅰ実験</v>
+      <c r="B20" t="s">
+        <v>44</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2821,12 +2542,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <f>[1]data!A21</f>
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <f>[1]data!B21</f>
-        <v>地学Ⅱ</v>
+      <c r="B21" t="s">
+        <v>45</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2849,12 +2568,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <f>[1]data!A22</f>
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <f>[1]data!B22</f>
-        <v>総合自然科学</v>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2877,12 +2594,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <f>[1]data!A23</f>
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <f>[1]data!B23</f>
-        <v>線形代数学Ⅰ</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2905,12 +2620,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <f>[1]data!A24</f>
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <f>[1]data!B24</f>
-        <v>線形代数学Ⅰ演習</v>
+      <c r="B24" t="s">
+        <v>48</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2933,12 +2646,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <f>[1]data!A25</f>
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <f>[1]data!B25</f>
-        <v>微分積分学Ⅰ</v>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2961,12 +2672,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <f>[1]data!A26</f>
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <f>[1]data!B26</f>
-        <v>微分積分学Ⅰ演習</v>
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2989,12 +2698,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <f>[1]data!A27</f>
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <f>[1]data!B27</f>
-        <v>線形代数学Ⅱ</v>
+      <c r="B27" t="s">
+        <v>51</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3017,12 +2724,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <f>[1]data!A28</f>
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <f>[1]data!B28</f>
-        <v>線形代数学Ⅱ演習</v>
+      <c r="B28" t="s">
+        <v>52</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3045,12 +2750,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <f>[1]data!A29</f>
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <f>[1]data!B29</f>
-        <v>微分積分学Ⅱ</v>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3073,12 +2776,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <f>[1]data!A30</f>
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <f>[1]data!B30</f>
-        <v>微分積分学Ⅱ演習</v>
+      <c r="B30" t="s">
+        <v>54</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3101,12 +2802,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <f>[1]data!A31</f>
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <f>[1]data!B31</f>
-        <v>力学Ⅰ</v>
+      <c r="B31" t="s">
+        <v>55</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3129,12 +2828,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <f>[1]data!A32</f>
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <f>[1]data!B32</f>
-        <v>物理学基礎実験Ⅰ</v>
+      <c r="B32" t="s">
+        <v>56</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3157,12 +2854,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <f>[1]data!A33</f>
         <v>32</v>
       </c>
-      <c r="B33" t="str">
-        <f>[1]data!B33</f>
-        <v>物理学基礎実験Ⅱ</v>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3185,12 +2880,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <f>[1]data!A34</f>
         <v>33</v>
       </c>
-      <c r="B34" t="str">
-        <f>[1]data!B34</f>
-        <v>計算機アーキテクチャⅠ</v>
+      <c r="B34" t="s">
+        <v>58</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3213,12 +2906,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <f>[1]data!A35</f>
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <f>[1]data!B35</f>
-        <v>線形代数学Ⅲ</v>
+      <c r="B35" t="s">
+        <v>59</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3241,12 +2932,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <f>[1]data!A36</f>
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <f>[1]data!B36</f>
-        <v>線形代数学Ⅲ演習</v>
+      <c r="B36" t="s">
+        <v>60</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3269,12 +2958,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <f>[1]data!A37</f>
         <v>36</v>
       </c>
-      <c r="B37" t="str">
-        <f>[1]data!B37</f>
-        <v>群論</v>
+      <c r="B37" t="s">
+        <v>61</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3297,12 +2984,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <f>[1]data!A38</f>
         <v>37</v>
       </c>
-      <c r="B38" t="str">
-        <f>[1]data!B38</f>
-        <v>群論演習</v>
+      <c r="B38" t="s">
+        <v>62</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3325,12 +3010,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <f>[1]data!A39</f>
         <v>38</v>
       </c>
-      <c r="B39" t="str">
-        <f>[1]data!B39</f>
-        <v>環・体論</v>
+      <c r="B39" t="s">
+        <v>63</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3353,12 +3036,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <f>[1]data!A40</f>
         <v>39</v>
       </c>
-      <c r="B40" t="str">
-        <f>[1]data!B40</f>
-        <v>ガロア理論</v>
+      <c r="B40" t="s">
+        <v>64</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3381,12 +3062,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <f>[1]data!A41</f>
         <v>40</v>
       </c>
-      <c r="B41" t="str">
-        <f>[1]data!B41</f>
-        <v>集合論</v>
+      <c r="B41" t="s">
+        <v>65</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3409,12 +3088,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <f>[1]data!A42</f>
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <f>[1]data!B42</f>
-        <v>集合論演習</v>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3437,12 +3114,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <f>[1]data!A43</f>
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <f>[1]data!B43</f>
-        <v>位相入門</v>
+      <c r="B43" t="s">
+        <v>67</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3465,12 +3140,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <f>[1]data!A44</f>
         <v>43</v>
       </c>
-      <c r="B44" t="str">
-        <f>[1]data!B44</f>
-        <v>位相入門演習</v>
+      <c r="B44" t="s">
+        <v>68</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3493,12 +3166,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <f>[1]data!A45</f>
         <v>44</v>
       </c>
-      <c r="B45" t="str">
-        <f>[1]data!B45</f>
-        <v>位相空間論</v>
+      <c r="B45" t="s">
+        <v>69</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3521,12 +3192,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <f>[1]data!A46</f>
         <v>45</v>
       </c>
-      <c r="B46" t="str">
-        <f>[1]data!B46</f>
-        <v>微分幾何学Ⅰ</v>
+      <c r="B46" t="s">
+        <v>70</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3549,12 +3218,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <f>[1]data!A47</f>
         <v>46</v>
       </c>
-      <c r="B47" t="str">
-        <f>[1]data!B47</f>
-        <v>微分幾何学Ⅱ</v>
+      <c r="B47" t="s">
+        <v>71</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3577,12 +3244,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <f>[1]data!A48</f>
         <v>47</v>
       </c>
-      <c r="B48" t="str">
-        <f>[1]data!B48</f>
-        <v>曲面と位相幾何</v>
+      <c r="B48" t="s">
+        <v>72</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3605,12 +3270,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <f>[1]data!A49</f>
         <v>48</v>
       </c>
-      <c r="B49" t="str">
-        <f>[1]data!B49</f>
-        <v>ホモロジーと位相幾何</v>
+      <c r="B49" t="s">
+        <v>73</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3633,12 +3296,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <f>[1]data!A50</f>
         <v>49</v>
       </c>
-      <c r="B50" t="str">
-        <f>[1]data!B50</f>
-        <v>結ぶ目と位相幾何</v>
+      <c r="B50" t="s">
+        <v>74</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3661,12 +3322,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <f>[1]data!A51</f>
         <v>50</v>
       </c>
-      <c r="B51" t="str">
-        <f>[1]data!B51</f>
-        <v>微分積分学Ⅲ</v>
+      <c r="B51" t="s">
+        <v>75</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3689,12 +3348,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <f>[1]data!A52</f>
         <v>51</v>
       </c>
-      <c r="B52" t="str">
-        <f>[1]data!B52</f>
-        <v>微分積分学Ⅲ演習</v>
+      <c r="B52" t="s">
+        <v>76</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3717,12 +3374,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <f>[1]data!A53</f>
         <v>52</v>
       </c>
-      <c r="B53" t="str">
-        <f>[1]data!B53</f>
-        <v>微分積分学Ⅳ</v>
+      <c r="B53" t="s">
+        <v>77</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3745,12 +3400,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <f>[1]data!A54</f>
         <v>53</v>
       </c>
-      <c r="B54" t="str">
-        <f>[1]data!B54</f>
-        <v>微分積分学Ⅳ演習</v>
+      <c r="B54" t="s">
+        <v>78</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3773,12 +3426,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <f>[1]data!A55</f>
         <v>54</v>
       </c>
-      <c r="B55" t="str">
-        <f>[1]data!B55</f>
-        <v>複素関数論Ⅰ</v>
+      <c r="B55" t="s">
+        <v>79</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3801,12 +3452,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <f>[1]data!A56</f>
         <v>55</v>
       </c>
-      <c r="B56" t="str">
-        <f>[1]data!B56</f>
-        <v>複素関数論Ⅰ演習</v>
+      <c r="B56" t="s">
+        <v>80</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3829,12 +3478,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <f>[1]data!A57</f>
         <v>56</v>
       </c>
-      <c r="B57" t="str">
-        <f>[1]data!B57</f>
-        <v>複素関数論Ⅱ</v>
+      <c r="B57" t="s">
+        <v>81</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3857,12 +3504,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <f>[1]data!A58</f>
         <v>57</v>
       </c>
-      <c r="B58" t="str">
-        <f>[1]data!B58</f>
-        <v>複素関数論Ⅱ演習</v>
+      <c r="B58" t="s">
+        <v>82</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3885,12 +3530,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <f>[1]data!A59</f>
         <v>58</v>
       </c>
-      <c r="B59" t="str">
-        <f>[1]data!B59</f>
-        <v>ルベーク積分論</v>
+      <c r="B59" t="s">
+        <v>83</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3913,12 +3556,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <f>[1]data!A60</f>
         <v>59</v>
       </c>
-      <c r="B60" t="str">
-        <f>[1]data!B60</f>
-        <v>確率過程論</v>
+      <c r="B60" t="s">
+        <v>84</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3941,12 +3582,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <f>[1]data!A61</f>
         <v>60</v>
       </c>
-      <c r="B61" t="str">
-        <f>[1]data!B61</f>
-        <v>数の体系</v>
+      <c r="B61" t="s">
+        <v>85</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3969,12 +3608,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <f>[1]data!A62</f>
         <v>61</v>
       </c>
-      <c r="B62" t="str">
-        <f>[1]data!B62</f>
-        <v>非線形微分方程式</v>
+      <c r="B62" t="s">
+        <v>86</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3997,12 +3634,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <f>[1]data!A63</f>
         <v>62</v>
       </c>
-      <c r="B63" t="str">
-        <f>[1]data!B63</f>
-        <v>数理ファイナンス</v>
+      <c r="B63" t="s">
+        <v>87</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4025,12 +3660,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <f>[1]data!A64</f>
         <v>63</v>
       </c>
-      <c r="B64" t="str">
-        <f>[1]data!B64</f>
-        <v>社会現象の数理解析</v>
+      <c r="B64" t="s">
+        <v>88</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4053,12 +3686,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <f>[1]data!A65</f>
         <v>64</v>
       </c>
-      <c r="B65" t="str">
-        <f>[1]data!B65</f>
-        <v>確率統計と情報処理</v>
+      <c r="B65" t="s">
+        <v>89</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4081,12 +3712,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <f>[1]data!A66</f>
         <v>65</v>
       </c>
-      <c r="B66" t="str">
-        <f>[1]data!B66</f>
-        <v>確率統計と情報処理演習</v>
+      <c r="B66" t="s">
+        <v>90</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4109,12 +3738,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <f>[1]data!A67</f>
         <v>66</v>
       </c>
-      <c r="B67" t="str">
-        <f>[1]data!B67</f>
-        <v>統計解析</v>
+      <c r="B67" t="s">
+        <v>91</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4137,12 +3764,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <f>[1]data!A68</f>
         <v>67</v>
       </c>
-      <c r="B68" t="str">
-        <f>[1]data!B68</f>
-        <v>統計解析演習</v>
+      <c r="B68" t="s">
+        <v>92</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4165,12 +3790,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <f>[1]data!A69</f>
         <v>68</v>
       </c>
-      <c r="B69" t="str">
-        <f>[1]data!B69</f>
-        <v>情報統計学</v>
+      <c r="B69" t="s">
+        <v>93</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4193,12 +3816,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <f>[1]data!A70</f>
         <v>69</v>
       </c>
-      <c r="B70" t="str">
-        <f>[1]data!B70</f>
-        <v>力学Ⅱ</v>
+      <c r="B70" t="s">
+        <v>94</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4221,12 +3842,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <f>[1]data!A71</f>
         <v>70</v>
       </c>
-      <c r="B71" t="str">
-        <f>[1]data!B71</f>
-        <v>解析力学</v>
+      <c r="B71" t="s">
+        <v>95</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4249,12 +3868,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <f>[1]data!A72</f>
         <v>71</v>
       </c>
-      <c r="B72" t="str">
-        <f>[1]data!B72</f>
-        <v>物理数学Ⅰ</v>
+      <c r="B72" t="s">
+        <v>96</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4277,12 +3894,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <f>[1]data!A73</f>
         <v>72</v>
       </c>
-      <c r="B73" t="str">
-        <f>[1]data!B73</f>
-        <v>物理数学Ⅱ</v>
+      <c r="B73" t="s">
+        <v>97</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4305,12 +3920,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <f>[1]data!A74</f>
         <v>73</v>
       </c>
-      <c r="B74" t="str">
-        <f>[1]data!B74</f>
-        <v>線形システム</v>
+      <c r="B74" t="s">
+        <v>98</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4333,12 +3946,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <f>[1]data!A75</f>
         <v>74</v>
       </c>
-      <c r="B75" t="str">
-        <f>[1]data!B75</f>
-        <v>電磁気学Ⅰ</v>
+      <c r="B75" t="s">
+        <v>99</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4361,12 +3972,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <f>[1]data!A76</f>
         <v>75</v>
       </c>
-      <c r="B76" t="str">
-        <f>[1]data!B76</f>
-        <v>電磁気学Ⅱ</v>
+      <c r="B76" t="s">
+        <v>100</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4389,12 +3998,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <f>[1]data!A77</f>
         <v>76</v>
       </c>
-      <c r="B77" t="str">
-        <f>[1]data!B77</f>
-        <v>電磁気学Ⅲ</v>
+      <c r="B77" t="s">
+        <v>101</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4417,12 +4024,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <f>[1]data!A78</f>
         <v>77</v>
       </c>
-      <c r="B78" t="str">
-        <f>[1]data!B78</f>
-        <v>振動と波動</v>
+      <c r="B78" t="s">
+        <v>102</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4445,12 +4050,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <f>[1]data!A79</f>
         <v>78</v>
       </c>
-      <c r="B79" t="str">
-        <f>[1]data!B79</f>
-        <v>光情報処理</v>
+      <c r="B79" t="s">
+        <v>103</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4473,12 +4076,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <f>[1]data!A80</f>
         <v>79</v>
       </c>
-      <c r="B80" t="str">
-        <f>[1]data!B80</f>
-        <v>物理学演習Ⅰ</v>
+      <c r="B80" t="s">
+        <v>104</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -4501,12 +4102,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <f>[1]data!A81</f>
         <v>80</v>
       </c>
-      <c r="B81" t="str">
-        <f>[1]data!B81</f>
-        <v>物理学演習Ⅱ</v>
+      <c r="B81" t="s">
+        <v>105</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4529,12 +4128,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <f>[1]data!A82</f>
         <v>81</v>
       </c>
-      <c r="B82" t="str">
-        <f>[1]data!B82</f>
-        <v>エレクトロニクス概論</v>
+      <c r="B82" t="s">
+        <v>106</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4557,12 +4154,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <f>[1]data!A83</f>
         <v>82</v>
       </c>
-      <c r="B83" t="str">
-        <f>[1]data!B83</f>
-        <v>熱力学</v>
+      <c r="B83" t="s">
+        <v>107</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4585,12 +4180,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <f>[1]data!A84</f>
         <v>83</v>
       </c>
-      <c r="B84" t="str">
-        <f>[1]data!B84</f>
-        <v>統計力学</v>
+      <c r="B84" t="s">
+        <v>108</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4613,12 +4206,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <f>[1]data!A85</f>
         <v>84</v>
       </c>
-      <c r="B85" t="str">
-        <f>[1]data!B85</f>
-        <v>量子力学Ⅰ</v>
+      <c r="B85" t="s">
+        <v>109</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4641,12 +4232,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <f>[1]data!A86</f>
         <v>85</v>
       </c>
-      <c r="B86" t="str">
-        <f>[1]data!B86</f>
-        <v>量子力学Ⅱ</v>
+      <c r="B86" t="s">
+        <v>110</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4669,12 +4258,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <f>[1]data!A87</f>
         <v>86</v>
       </c>
-      <c r="B87" t="str">
-        <f>[1]data!B87</f>
-        <v>電子回路</v>
+      <c r="B87" t="s">
+        <v>111</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4697,12 +4284,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <f>[1]data!A88</f>
         <v>87</v>
       </c>
-      <c r="B88" t="str">
-        <f>[1]data!B88</f>
-        <v>物質構造解析</v>
+      <c r="B88" t="s">
+        <v>112</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4725,12 +4310,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <f>[1]data!A89</f>
         <v>88</v>
       </c>
-      <c r="B89" t="str">
-        <f>[1]data!B89</f>
-        <v>物性物理学</v>
+      <c r="B89" t="s">
+        <v>113</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4753,12 +4336,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <f>[1]data!A90</f>
         <v>89</v>
       </c>
-      <c r="B90" t="str">
-        <f>[1]data!B90</f>
-        <v>天文学概論</v>
+      <c r="B90" t="s">
+        <v>114</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4781,12 +4362,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <f>[1]data!A91</f>
         <v>90</v>
       </c>
-      <c r="B91" t="str">
-        <f>[1]data!B91</f>
-        <v>宇宙と現代物理学</v>
+      <c r="B91" t="s">
+        <v>115</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4809,12 +4388,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <f>[1]data!A92</f>
         <v>91</v>
       </c>
-      <c r="B92" t="str">
-        <f>[1]data!B92</f>
-        <v>応用物理</v>
+      <c r="B92" t="s">
+        <v>116</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4837,12 +4414,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <f>[1]data!A93</f>
         <v>92</v>
       </c>
-      <c r="B93" t="str">
-        <f>[1]data!B93</f>
-        <v>計算物理</v>
+      <c r="B93" t="s">
+        <v>117</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4865,12 +4440,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <f>[1]data!A94</f>
         <v>93</v>
       </c>
-      <c r="B94" t="str">
-        <f>[1]data!B94</f>
-        <v>物理計測法</v>
+      <c r="B94" t="s">
+        <v>118</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4893,12 +4466,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <f>[1]data!A95</f>
         <v>94</v>
       </c>
-      <c r="B95" t="str">
-        <f>[1]data!B95</f>
-        <v>物理学実験</v>
+      <c r="B95" t="s">
+        <v>119</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4921,12 +4492,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <f>[1]data!A96</f>
         <v>95</v>
       </c>
-      <c r="B96" t="str">
-        <f>[1]data!B96</f>
-        <v>応用物理学実験Ⅰ</v>
+      <c r="B96" t="s">
+        <v>120</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4949,12 +4518,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <f>[1]data!A97</f>
         <v>96</v>
       </c>
-      <c r="B97" t="str">
-        <f>[1]data!B97</f>
-        <v>応用物理学実験Ⅱ</v>
+      <c r="B97" t="s">
+        <v>121</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4977,12 +4544,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <f>[1]data!A98</f>
         <v>97</v>
       </c>
-      <c r="B98" t="str">
-        <f>[1]data!B98</f>
-        <v>情報基礎数学</v>
+      <c r="B98" t="s">
+        <v>122</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5005,12 +4570,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <f>[1]data!A99</f>
         <v>98</v>
       </c>
-      <c r="B99" t="str">
-        <f>[1]data!B99</f>
-        <v>離散数学</v>
+      <c r="B99" t="s">
+        <v>123</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5033,12 +4596,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <f>[1]data!A100</f>
         <v>99</v>
       </c>
-      <c r="B100" t="str">
-        <f>[1]data!B100</f>
-        <v>計算機アーキテクチャⅡ</v>
+      <c r="B100" t="s">
+        <v>124</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -5061,12 +4622,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <f>[1]data!A101</f>
         <v>100</v>
       </c>
-      <c r="B101" t="str">
-        <f>[1]data!B101</f>
-        <v>論理回路論</v>
+      <c r="B101" t="s">
+        <v>125</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -5089,12 +4648,10 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <f>[1]data!A102</f>
         <v>101</v>
       </c>
-      <c r="B102" t="str">
-        <f>[1]data!B102</f>
-        <v>データ構造とアルゴリズム</v>
+      <c r="B102" t="s">
+        <v>126</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -5117,12 +4674,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <f>[1]data!A103</f>
         <v>102</v>
       </c>
-      <c r="B103" t="str">
-        <f>[1]data!B103</f>
-        <v>シミュレーションとデータ表現</v>
+      <c r="B103" t="s">
+        <v>127</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -5145,12 +4700,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <f>[1]data!A104</f>
         <v>103</v>
       </c>
-      <c r="B104" t="str">
-        <f>[1]data!B104</f>
-        <v>計算機数学Ⅰ</v>
+      <c r="B104" t="s">
+        <v>128</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5173,12 +4726,10 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <f>[1]data!A105</f>
         <v>104</v>
       </c>
-      <c r="B105" t="str">
-        <f>[1]data!B105</f>
-        <v>計算機数学Ⅱ</v>
+      <c r="B105" t="s">
+        <v>129</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -5201,12 +4752,10 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <f>[1]data!A106</f>
         <v>105</v>
       </c>
-      <c r="B106" t="str">
-        <f>[1]data!B106</f>
-        <v>数値計算法Ⅰ</v>
+      <c r="B106" t="s">
+        <v>130</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -5229,12 +4778,10 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <f>[1]data!A107</f>
         <v>106</v>
       </c>
-      <c r="B107" t="str">
-        <f>[1]data!B107</f>
-        <v>数値計算法Ⅱ</v>
+      <c r="B107" t="s">
+        <v>131</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -5257,12 +4804,10 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <f>[1]data!A108</f>
         <v>107</v>
       </c>
-      <c r="B108" t="str">
-        <f>[1]data!B108</f>
-        <v>情報科学実験</v>
+      <c r="B108" t="s">
+        <v>41</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5285,12 +4830,10 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <f>[1]data!A109</f>
         <v>108</v>
       </c>
-      <c r="B109" t="str">
-        <f>[1]data!B109</f>
-        <v>情報検索とデータベース実習</v>
+      <c r="B109" t="s">
+        <v>132</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5313,12 +4856,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <f>[1]data!A110</f>
         <v>109</v>
       </c>
-      <c r="B110" t="str">
-        <f>[1]data!B110</f>
-        <v>LinuxとShellプログラミング実習</v>
+      <c r="B110" t="s">
+        <v>133</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5341,12 +4882,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <f>[1]data!A111</f>
         <v>110</v>
       </c>
-      <c r="B111" t="str">
-        <f>[1]data!B111</f>
-        <v>プレゼンテーション実習</v>
+      <c r="B111" t="s">
+        <v>134</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5369,12 +4908,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <f>[1]data!A112</f>
         <v>111</v>
       </c>
-      <c r="B112" t="str">
-        <f>[1]data!B112</f>
-        <v>マルチメディアの基礎</v>
+      <c r="B112" t="s">
+        <v>135</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5397,12 +4934,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <f>[1]data!A113</f>
         <v>112</v>
       </c>
-      <c r="B113" t="str">
-        <f>[1]data!B113</f>
-        <v>図形と画像処理</v>
+      <c r="B113" t="s">
+        <v>136</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5425,12 +4960,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <f>[1]data!A114</f>
         <v>113</v>
       </c>
-      <c r="B114" t="str">
-        <f>[1]data!B114</f>
-        <v>図形と画像処理演習</v>
+      <c r="B114" t="s">
+        <v>137</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5453,12 +4986,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <f>[1]data!A115</f>
         <v>114</v>
       </c>
-      <c r="B115" t="str">
-        <f>[1]data!B115</f>
-        <v>コンピューターグラフィックス</v>
+      <c r="B115" t="s">
+        <v>138</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5481,12 +5012,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <f>[1]data!A116</f>
         <v>115</v>
       </c>
-      <c r="B116" t="str">
-        <f>[1]data!B116</f>
-        <v>情報ネットワーク</v>
+      <c r="B116" t="s">
+        <v>139</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5509,12 +5038,10 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <f>[1]data!A117</f>
         <v>116</v>
       </c>
-      <c r="B117" t="str">
-        <f>[1]data!B117</f>
-        <v>情報セキュリティとネットワークシステム</v>
+      <c r="B117" t="s">
+        <v>140</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5537,12 +5064,10 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <f>[1]data!A118</f>
         <v>117</v>
       </c>
-      <c r="B118" t="str">
-        <f>[1]data!B118</f>
-        <v>ネットワーク管理実習</v>
+      <c r="B118" t="s">
+        <v>141</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5565,12 +5090,10 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <f>[1]data!A119</f>
         <v>118</v>
       </c>
-      <c r="B119" t="str">
-        <f>[1]data!B119</f>
-        <v>符号理論</v>
+      <c r="B119" t="s">
+        <v>142</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5593,12 +5116,10 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <f>[1]data!A120</f>
         <v>119</v>
       </c>
-      <c r="B120" t="str">
-        <f>[1]data!B120</f>
-        <v>暗号理論とセキュリティ</v>
+      <c r="B120" t="s">
+        <v>143</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -5621,12 +5142,10 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <f>[1]data!A121</f>
         <v>120</v>
       </c>
-      <c r="B121" t="str">
-        <f>[1]data!B121</f>
-        <v>情報理論</v>
+      <c r="B121" t="s">
+        <v>144</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5649,12 +5168,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <f>[1]data!A122</f>
         <v>121</v>
       </c>
-      <c r="B122" t="str">
-        <f>[1]data!B122</f>
-        <v>人工知能</v>
+      <c r="B122" t="s">
+        <v>145</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5677,12 +5194,10 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <f>[1]data!A123</f>
         <v>122</v>
       </c>
-      <c r="B123" t="str">
-        <f>[1]data!B123</f>
-        <v>数理モデル</v>
+      <c r="B123" t="s">
+        <v>146</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -5705,12 +5220,10 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <f>[1]data!A124</f>
         <v>123</v>
       </c>
-      <c r="B124" t="str">
-        <f>[1]data!B124</f>
-        <v>Webプログラミング</v>
+      <c r="B124" t="s">
+        <v>147</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5733,12 +5246,10 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <f>[1]data!A125</f>
         <v>124</v>
       </c>
-      <c r="B125" t="str">
-        <f>[1]data!B125</f>
-        <v>情報社会倫理論</v>
+      <c r="B125" t="s">
+        <v>148</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5761,12 +5272,10 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <f>[1]data!A126</f>
         <v>125</v>
       </c>
-      <c r="B126" t="str">
-        <f>[1]data!B126</f>
-        <v>情報と職業</v>
+      <c r="B126" t="s">
+        <v>149</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5789,12 +5298,10 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <f>[1]data!A127</f>
         <v>126</v>
       </c>
-      <c r="B127" t="str">
-        <f>[1]data!B127</f>
-        <v>代数学特論A</v>
+      <c r="B127" t="s">
+        <v>150</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5817,12 +5324,10 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <f>[1]data!A128</f>
         <v>127</v>
       </c>
-      <c r="B128" t="str">
-        <f>[1]data!B128</f>
-        <v>代数学特論B</v>
+      <c r="B128" t="s">
+        <v>151</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5845,12 +5350,10 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <f>[1]data!A129</f>
         <v>128</v>
       </c>
-      <c r="B129" t="str">
-        <f>[1]data!B129</f>
-        <v>位相幾何学特論A</v>
+      <c r="B129" t="s">
+        <v>152</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5873,12 +5376,10 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <f>[1]data!A130</f>
         <v>129</v>
       </c>
-      <c r="B130" t="str">
-        <f>[1]data!B130</f>
-        <v>位相幾何学特論B</v>
+      <c r="B130" t="s">
+        <v>153</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5901,12 +5402,10 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <f>[1]data!A131</f>
         <v>130</v>
       </c>
-      <c r="B131" t="str">
-        <f>[1]data!B131</f>
-        <v>微分幾何学特論A</v>
+      <c r="B131" t="s">
+        <v>154</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5929,12 +5428,10 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <f>[1]data!A132</f>
         <v>131</v>
       </c>
-      <c r="B132" t="str">
-        <f>[1]data!B132</f>
-        <v>微分幾何学特論B</v>
+      <c r="B132" t="s">
+        <v>155</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5957,12 +5454,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <f>[1]data!A133</f>
         <v>132</v>
       </c>
-      <c r="B133" t="str">
-        <f>[1]data!B133</f>
-        <v>解析学特論A</v>
+      <c r="B133" t="s">
+        <v>156</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5985,12 +5480,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <f>[1]data!A134</f>
         <v>133</v>
       </c>
-      <c r="B134" t="str">
-        <f>[1]data!B134</f>
-        <v>解析学特論B</v>
+      <c r="B134" t="s">
+        <v>157</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -6013,12 +5506,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <f>[1]data!A135</f>
         <v>134</v>
       </c>
-      <c r="B135" t="str">
-        <f>[1]data!B135</f>
-        <v>解析学特論C</v>
+      <c r="B135" t="s">
+        <v>158</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -6041,12 +5532,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <f>[1]data!A136</f>
         <v>135</v>
       </c>
-      <c r="B136" t="str">
-        <f>[1]data!B136</f>
-        <v>解析学特論D</v>
+      <c r="B136" t="s">
+        <v>159</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -6069,12 +5558,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <f>[1]data!A137</f>
         <v>136</v>
       </c>
-      <c r="B137" t="str">
-        <f>[1]data!B137</f>
-        <v>数理統計学特論A</v>
+      <c r="B137" t="s">
+        <v>160</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -6097,12 +5584,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <f>[1]data!A138</f>
         <v>137</v>
       </c>
-      <c r="B138" t="str">
-        <f>[1]data!B138</f>
-        <v>数理統計学特論B</v>
+      <c r="B138" t="s">
+        <v>161</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -6125,12 +5610,10 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <f>[1]data!A139</f>
         <v>138</v>
       </c>
-      <c r="B139" t="str">
-        <f>[1]data!B139</f>
-        <v>量子力学特論</v>
+      <c r="B139" t="s">
+        <v>162</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -6153,12 +5636,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <f>[1]data!A140</f>
         <v>139</v>
       </c>
-      <c r="B140" t="str">
-        <f>[1]data!B140</f>
-        <v>熱・統計力学特論</v>
+      <c r="B140" t="s">
+        <v>163</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -6181,12 +5662,10 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <f>[1]data!A141</f>
         <v>140</v>
       </c>
-      <c r="B141" t="str">
-        <f>[1]data!B141</f>
-        <v>表面物理学特論</v>
+      <c r="B141" t="s">
+        <v>164</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -6209,12 +5688,10 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <f>[1]data!A142</f>
         <v>141</v>
       </c>
-      <c r="B142" t="str">
-        <f>[1]data!B142</f>
-        <v>物性物理学特論</v>
+      <c r="B142" t="s">
+        <v>165</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -6237,12 +5714,10 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <f>[1]data!A143</f>
         <v>142</v>
       </c>
-      <c r="B143" t="str">
-        <f>[1]data!B143</f>
-        <v>構造物性科学特論</v>
+      <c r="B143" t="s">
+        <v>166</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -6265,12 +5740,10 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <f>[1]data!A144</f>
         <v>143</v>
       </c>
-      <c r="B144" t="str">
-        <f>[1]data!B144</f>
-        <v>宇宙物理学特論</v>
+      <c r="B144" t="s">
+        <v>167</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -6293,12 +5766,10 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <f>[1]data!A145</f>
         <v>144</v>
       </c>
-      <c r="B145" t="str">
-        <f>[1]data!B145</f>
-        <v>情報科学特論A</v>
+      <c r="B145" t="s">
+        <v>168</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -6321,12 +5792,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <f>[1]data!A146</f>
         <v>145</v>
       </c>
-      <c r="B146" t="str">
-        <f>[1]data!B146</f>
-        <v>情報科学特論B</v>
+      <c r="B146" t="s">
+        <v>169</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -6349,12 +5818,10 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <f>[1]data!A147</f>
         <v>146</v>
       </c>
-      <c r="B147" t="str">
-        <f>[1]data!B147</f>
-        <v>情報科学特論C</v>
+      <c r="B147" t="s">
+        <v>170</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -6377,12 +5844,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <f>[1]data!A148</f>
         <v>147</v>
       </c>
-      <c r="B148" t="str">
-        <f>[1]data!B148</f>
-        <v>情報科学特論D</v>
+      <c r="B148" t="s">
+        <v>171</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -6405,12 +5870,10 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <f>[1]data!A149</f>
         <v>148</v>
       </c>
-      <c r="B149" t="str">
-        <f>[1]data!B149</f>
-        <v>情報科学特論E</v>
+      <c r="B149" t="s">
+        <v>172</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -6433,12 +5896,10 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <f>[1]data!A150</f>
         <v>149</v>
       </c>
-      <c r="B150" t="str">
-        <f>[1]data!B150</f>
-        <v>情報科学特論F</v>
+      <c r="B150" t="s">
+        <v>173</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -6461,12 +5922,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <f>[1]data!A151</f>
         <v>150</v>
       </c>
-      <c r="B151" t="str">
-        <f>[1]data!B151</f>
-        <v>数学ゼミ</v>
+      <c r="B151" t="s">
+        <v>174</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -6489,12 +5948,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <f>[1]data!A152</f>
         <v>151</v>
       </c>
-      <c r="B152" t="str">
-        <f>[1]data!B152</f>
-        <v>物理ゼミⅠ</v>
+      <c r="B152" t="s">
+        <v>175</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6517,12 +5974,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <f>[1]data!A153</f>
         <v>152</v>
       </c>
-      <c r="B153" t="str">
-        <f>[1]data!B153</f>
-        <v>物理ゼミⅡ</v>
+      <c r="B153" t="s">
+        <v>176</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6545,12 +6000,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <f>[1]data!A154</f>
         <v>153</v>
       </c>
-      <c r="B154" t="str">
-        <f>[1]data!B154</f>
-        <v>情報ゼミⅠ</v>
+      <c r="B154" t="s">
+        <v>177</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6573,12 +6026,10 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <f>[1]data!A155</f>
         <v>154</v>
       </c>
-      <c r="B155" t="str">
-        <f>[1]data!B155</f>
-        <v>情報ゼミⅡ</v>
+      <c r="B155" t="s">
+        <v>178</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6601,12 +6052,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <f>[1]data!A156</f>
         <v>155</v>
       </c>
-      <c r="B156" t="str">
-        <f>[1]data!B156</f>
-        <v>数学卒業研究演習Ⅰ</v>
+      <c r="B156" t="s">
+        <v>179</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6629,12 +6078,10 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <f>[1]data!A157</f>
         <v>156</v>
       </c>
-      <c r="B157" t="str">
-        <f>[1]data!B157</f>
-        <v>数学卒業研究演習Ⅱ</v>
+      <c r="B157" t="s">
+        <v>180</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -6657,12 +6104,10 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <f>[1]data!A158</f>
         <v>157</v>
       </c>
-      <c r="B158" t="str">
-        <f>[1]data!B158</f>
-        <v>数学特別演習Ⅰ</v>
+      <c r="B158" t="s">
+        <v>181</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6685,12 +6130,10 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <f>[1]data!A159</f>
         <v>158</v>
       </c>
-      <c r="B159" t="str">
-        <f>[1]data!B159</f>
-        <v>数学特別演習Ⅱ</v>
+      <c r="B159" t="s">
+        <v>182</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6713,12 +6156,10 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <f>[1]data!A160</f>
         <v>159</v>
       </c>
-      <c r="B160" t="str">
-        <f>[1]data!B160</f>
-        <v>物理特別研究Ⅰ</v>
+      <c r="B160" t="s">
+        <v>183</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6741,12 +6182,10 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <f>[1]data!A161</f>
         <v>160</v>
       </c>
-      <c r="B161" t="str">
-        <f>[1]data!B161</f>
-        <v>物理特別研究Ⅱ</v>
+      <c r="B161" t="s">
+        <v>184</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6769,12 +6208,10 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <f>[1]data!A162</f>
         <v>161</v>
       </c>
-      <c r="B162" t="str">
-        <f>[1]data!B162</f>
-        <v>情報特別研究Ⅰ</v>
+      <c r="B162" t="s">
+        <v>185</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6797,12 +6234,10 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <f>[1]data!A163</f>
         <v>162</v>
       </c>
-      <c r="B163" t="str">
-        <f>[1]data!B163</f>
-        <v>情報特別研究Ⅱ</v>
+      <c r="B163" t="s">
+        <v>186</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -6825,12 +6260,10 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <f>[1]data!A164</f>
         <v>163</v>
       </c>
-      <c r="B164" t="str">
-        <f>[1]data!B164</f>
-        <v>卒業研究</v>
+      <c r="B164" t="s">
+        <v>187</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6848,6 +6281,32 @@
         <v>0</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>188</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
         <v>0</v>
       </c>
     </row>
@@ -6855,4 +6314,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6283F971-4D79-4946-BD6B-6F1666A49B3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/copy/input.xlsx
+++ b/copy/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB1D04-1703-E348-9CAE-ABC6F48D21AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6C4622-56C7-1A4F-B5D7-AF2648994320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{91D00950-669B-4649-B727-A0081C955E8B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{91D00950-669B-4649-B727-A0081C955E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="input1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="225">
   <si>
     <t>コース</t>
     <phoneticPr fontId="1"/>
@@ -800,6 +800,196 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目名</t>
+    <rPh sb="0" eb="3">
+      <t>カモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教職基礎論(中高)</t>
+    <rPh sb="0" eb="5">
+      <t>キョウショク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育学概論(中高)</t>
+    <rPh sb="0" eb="1">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育心理学(中高)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育社会学(中高)</t>
+    <rPh sb="0" eb="5">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カリキュラム論(中高)</t>
+    <rPh sb="8" eb="10">
+      <t>チュウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道徳教育の研究(中)</t>
+    <rPh sb="0" eb="4">
+      <t>ドウトクク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別活動の研究(中高)</t>
+    <rPh sb="0" eb="4">
+      <t>トクベテゥ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育工学(中高)</t>
+    <rPh sb="0" eb="4">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒指導</t>
+    <rPh sb="0" eb="4">
+      <t>セイト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校カウンセリング基礎論(中高)</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育実習I(中高)</t>
+    <rPh sb="0" eb="4">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育実習Ⅱ(高のみ)</t>
+    <rPh sb="0" eb="1">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">コウノミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教職実践演習</t>
+    <rPh sb="0" eb="2">
+      <t>キョウショク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジッセn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学科教育法Ⅰ</t>
+    <rPh sb="0" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学科教育法Ⅱ</t>
+    <rPh sb="0" eb="1">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学科教育法Ⅲ</t>
+    <rPh sb="0" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報科教育法Ⅰ</t>
+    <rPh sb="0" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報科教育法Ⅱ</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウホウカキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科教育法Ⅰ</t>
+    <rPh sb="0" eb="4">
+      <t>リカキョウイクホ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科教育法Ⅱ</t>
+    <rPh sb="0" eb="1">
+      <t>リカキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科教育法Ⅲ</t>
+    <rPh sb="0" eb="5">
+      <t>リカキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1185,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6C954-9FA8-C94A-A817-A1724A23D99A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1281,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F34955F-5CCB-2E4E-B231-421D7B783751}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5585,14 +5775,590 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B19289-D810-7F4E-87BF-60E1C4DCCECD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
